--- a/results/titanicNumeric/35/evaluation.xlsx
+++ b/results/titanicNumeric/35/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>BIO</t>
   </si>
@@ -46,37 +46,31 @@
     <t>TRAIN</t>
   </si>
   <si>
-    <t>0.39143730886850153</t>
-  </si>
-  <si>
-    <t>0.9694189602446484</t>
-  </si>
-  <si>
-    <t>0.9733333333333334</t>
-  </si>
-  <si>
-    <t>0.9931972789115646</t>
-  </si>
-  <si>
-    <t>[383, 352, 535, 375, 140, 97, 858, 321, 96, 500, 21, 362, 308, 307, 98, 725, 320, 139, 223, 169]</t>
+    <t>0.37767584097859325</t>
+  </si>
+  <si>
+    <t>0.06269113149847094</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[787, 337, 242, 6, 1168, 626, 178, 672, 112, 114, 785, 801, 1165, 406, 651, 472, 590, 736, 694, 1005, 553, 1162, 925, 1026, 845, 977, 1282, 588, 633, 1230, 100, 1085, 194, 1077, 978, 168, 308, 1166, 1153, 1067, 1051, 1270, 539, 135, 278, 1164, 387, 1175, 779, 667, 77, 435, 303, 533, 292, 384, 171, 756, 176, 479, 671, 38, 556, 569, 1109, 592, 502, 196, 824, 741, 493, 301, 139, 1242, 634, 934, 330, 359, 513, 1133, 1038, 783, 1285, 1169, 276, 25, 129, 1128, 662, 775, 1116, 405, 601, 867, 480, 725, 484, 190, 1265, 392, 1088, 1287, 370, 984, 349, 950, 988, 809, 760, 263, 138, 997, 403, 188, 790, 778, 843, 1062, 874, 1041, 603, 1050, 415, 629, 1049, 210, 169, 57, 627, 982, 1044, 1134, 792, 481, 548, 719, 1303, 630, 473, 65, 993, 96, 582, 193, 550, 421, 428, 810, 823, 987, 688, 147, 1014, 158, 928, 439, 353, 161, 375, 1113, 864, 497, 1066, 35, 705, 606, 222, 326, 931, 393, 1200, 1302, 992, 483, 488, 408, 293, 665, 1304, 1225, 957, 28, 628, 567, 1037, 40, 66, 654, 514, 394, 631, 1274, 747, 54, 285, 1105, 696, 703, 329, 709, 1181, 842, 742, 17, 1048, 259, 1059, 241, 12, 1213, 620, 1179, 140, 286, 751, 852, 768, 1177, 236, 526, 385, 295, 975, 519, 1298, 594, 189, 1214, 1108, 821, 613, 13, 589, 1098, 797, 1054, 818, 345, 825, 105, 677, 767, 452, 903, 713, 1244, 1094, 309, 576, 449, 447, 1039, 1090, 165, 885, 166, 107, 1189, 941, 881, 1264, 399, 335, 186, 1192, 929, 516, 748, 136, 288, 1280, 187, 1057, 363, 148, 895, 780, 913, 1035, 900, 1296, 1269, 141, 234, 1293, 1047, 1146, 1227, 524, 203, 652, 655, 1155, 0, 898, 357, 945, 583, 831, 546, 624, 720, 880, 99, 213, 1248, 908, 858, 1056, 304, 427, 457, 1245, 1216, 1021, 1092, 963, 1188, 111, 714, 848, 802, 551, 474, 537, 732, 552, 137, 863, 953, 1019, 619, 14, 1145, 851, 1082, 41, 162, 793, 486, 781, 949, 584, 52, 892, 557, 289, 954, 757, 362, 737, 835, 1017, 228, 681, 332, 145, 646, 921, 1120, 1034, 342, 512, 391, 71, 185, 819, 558, 1190, 383, 608, 294, 849, 229, 402, 1238, 523, 24, 659, 1205, 706, 297, 635, 366, 1013, 204, 398, 930, 270, 690, 836, 378, 980, 127, 610, 48, 209, 505, 1073, 917, 1009, 491, 412, 290, 390, 47, 1075, 773, 847, 916, 153, 163, 1256, 482, 32, 1288, 419, 796, 598, 1283, 104, 492, 1252, 625, 507, 1023, 444, 1215, 149, 612, 994, 932, 1045, 861, 445, 7, 1070, 420, 794, 986, 1191, 1198, 859, 749, 615, 306, 674, 338, 951, 103, 623, 1117, 637, 109, 996, 19, 560, 772, 170, 70, 527, 607, 476, 702, 621, 1235, 1261, 500, 670, 226, 323, 830, 508, 577, 1203, 221, 586, 771, 49, 805, 115, 638, 5, 142, 668, 448, 307, 912, 407, 856, 1157, 1144, 1135, 478, 682, 947, 972, 350, 1294, 933, 404, 1300, 838, 143, 275, 712, 314, 1136, 680, 1143, 418, 334, 695, 669, 580, 722, 10, 554, 1033, 31, 697, 786, 641, 515, 1156, 866, 1068, 1027, 469, 1106, 1220, 498, 700, 807, 518, 1240, 879, 1251, 660, 251, 894, 788, 256, 860, 1121, 506, 381, 1268, 596, 1102, 803, 184, 782, 254, 985, 886, 642, 1052, 1306, 948, 571, 964, 1202, 331, 1266, 4, 336, 1290, 132, 1124, 248, 1123, 943, 9, 1201, 287, 364, 8, 522, 675, 1196, 1095, 1246, 965, 150, 905, 1040, 871, 983, 1299, 310, 1031, 738, 901, 647, 1084, 868, 379, 581, 1222, 1029, 1110, 1083, 1012, 69, 1032, 1086, 1275, 78, 656, 832, 889, 1053]</t>
   </si>
   <si>
     <t>TEST</t>
   </si>
   <si>
-    <t>0.36793893129770994</t>
-  </si>
-  <si>
-    <t>0.9572519083969465</t>
-  </si>
-  <si>
-    <t>0.9629032258064516</t>
-  </si>
-  <si>
-    <t>0.9916943521594684</t>
-  </si>
-  <si>
-    <t>[135, 523, 688, 501, 452, 216, 191, 425, 478, 159, 372, 549, 371, 687, 213, 69, 229, 412, 300, 145, 22, 509, 788, 313, 348, 128, 663, 388]</t>
+    <t>0.3816793893129771</t>
+  </si>
+  <si>
+    <t>0.0732824427480916</t>
+  </si>
+  <si>
+    <t>[33, 1170, 862, 262, 1000, 650, 1172, 367, 264, 854, 764, 685, 1010, 489, 397, 144, 882, 543, 752, 605, 46, 471, 1016, 969, 1142, 534, 599, 746, 1126, 1025, 817, 1114, 252, 698, 745, 1006, 1221, 1197, 173, 776, 1015, 156, 678, 358, 18, 1195, 1232, 267, 579, 799, 1212, 274, 501, 37, 1063, 108, 388, 520, 1119, 1161, 1055, 716, 1081, 1210, 711, 559, 602, 555, 976, 777, 593, 829, 899, 240, 414, 1174, 1148, 724, 734, 333, 762, 888, 64, 456, 1291, 981, 1072, 315, 595, 541, 566, 56, 636, 224, 302, 79, 600, 80, 1231, 893, 869, 340, 1224, 1159, 258, 822, 1131, 3, 806, 192, 922, 936, 102, 101, 211, 42, 897, 877, 245, 1022, 587, 578, 1239, 1163, 664, 563, 528, 347, 701, 661, 833, 907, 250, 1011, 789, 1223, 1193, 1140, 122, 902, 1100, 938, 937, 191, 361, 98, 923, 808, 591, 354, 43, 952, 723, 174, 1078, 910, 1218, 918, 1160, 217, 920, 1139, 1129, 769, 1087, 1255, 891, 130, 1206, 730, 967, 1137, 265, 1229, 164, 1132, 50, 961, 791, 1004, 160, 123, 1069, 120, 1305, 455, 759, 1173, 857, 72, 973, 1295, 438, 416, 944, 853, 1278, 1141, 1061, 39, 1217, 291, 325, 16, 529, 490, 876, 454, 1207, 717, 663, 959, 128, 826, 396, 547, 645, 322, 883, 1308, 979, 873, 542, 727, 466, 572, 1115, 679, 60, 733, 728, 872, 850, 1243, 875, 811, 924, 75, 658, 721, 648, 1257, 218, 321, 1060, 152, 63, 919, 284, 1263, 1149, 15, 1273, 1271, 1130, 243, 499, 1138, 496, 365, 927, 76, 1007, 974, 1064, 177, 437, 763, 503, 1093, 971, 942, 565, 1058, 181, 126, 97, 657, 812, 1226, 915, 1152, 815, 609, 795, 855, 159, 400, 816, 1104, 828, 1028, 649, 644, 324, 946, 504, 800, 1154, 212, 1167, 1228, 1286, 643, 616, 989, 485, 991, 960, 34, 1127, 125, 197, 575, 753, 1112, 477, 417, 426, 597, 373, 62, 305, 844, 249, 909, 266, 870, 1272, 429, 146, 374, 538, 44, 133, 1020, 726, 1204, 260, 436, 1199, 1030, 268, 611, 890, 45, 124, 939, 300, 834, 750, 1079, 434, 453, 1234, 743, 532, 887, 673, 1297, 1096, 59, 182, 1076, 1080, 360, 617, 464, 640, 1260, 1284, 235, 283, 841, 1150, 846, 113, 676, 693, 1097, 246, 544, 341, 683, 1289, 531, 999, 369, 755, 121, 1122, 179, 1125, 313, 1184, 765, 470, 1253, 346, 614, 878, 549, 684, 1043, 467, 896, 1194, 1281, 356, 940, 401, 761, 958, 1292, 225, 110, 23, 206, 1065, 622, 282, 966, 1118, 729, 487, 317, 837, 327, 687, 380, 1183, 754, 744, 692, 906, 827, 739, 865, 198, 540, 233, 1018, 1147, 1186, 495, 632, 774, 1259, 468, 1046, 509, 691, 758, 220, 430, 257, 1211, 564, 151, 956, 1074, 686, 116, 1176, 535, 689, 2, 134, 1250, 1003, 1071, 1249, 570, 442, 244, 639, 277, 699, 784, 735, 55, 517, 199, 820, 968, 475, 175, 431, 1151, 344, 1279, 255, 328, 1091, 1001, 766, 106, 67, 585, 1208, 798, 446, 998, 1178, 1236, 183, 814, 1307, 525, 1254, 413, 740, 339, 30, 704, 311, 813, 1111, 1219, 1107, 1158, 708, 443, 561, 904, 955, 227, 343, 521, 219, 1036, 1187, 653, 510, 884, 351, 1185, 840, 1089, 926, 11, 1209, 1247, 36, 1241, 1, 914, 1262, 1233, 666, 731, 279, 395, 911, 618, 368, 962, 51, 1042, 710, 157, 180, 1002, 1301, 131, 804, 377, 1024, 718, 1101, 1008, 155, 604, 382, 386, 172, 935, 839, 1103, 27, 425, 536, 1099, 154, 319, 1171, 770, 530, 207, 707, 511, 20, 1277, 545, 568, 970, 1182, 995, 562, 465, 29, 1237, 1180, 990, 355, 167, 715]</t>
   </si>
   <si>
     <t>BNN</t>
@@ -97,13 +91,13 @@
     <t>AVERAGE TRAIN FIDELITY PER LAYER, STARTING WITH SHALLOWER:</t>
   </si>
   <si>
-    <t>[0.9793577981651376, 1.0, 1.0, 0.9954128440366973, 1.0]</t>
+    <t>[0.3883792048929664, 1.0, 0.7431192660550459, 0.25688073394495414, 1.0]</t>
   </si>
   <si>
     <t>AVERAGE TEST FIDELITY PER LAYER, STARTING WITH SHALLOWER:</t>
   </si>
   <si>
-    <t>[0.9725190839694657, 0.9954198473282443, 0.9923664122137404, 0.983206106870229, 1.0]</t>
+    <t>[0.36793893129770994, 1.0, 0.7419847328244275, 0.2580152671755725, 1.0]</t>
   </si>
 </sst>
 </file>
@@ -517,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -528,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -539,17 +533,17 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -581,7 +575,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -589,26 +583,26 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
